--- a/results/FrequencyTables/25752527_gP24-T1.xlsx
+++ b/results/FrequencyTables/25752527_gP24-T1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.98989898989899</v>
+        <v>0.926183767058954</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.99856345654456</v>
       </c>
       <c r="D2">
-        <v>0.98989898989899</v>
+        <v>0.998673959887287</v>
       </c>
       <c r="E2">
-        <v>0.98989898989899</v>
+        <v>0.938615393115642</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00044201337090447</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000552516713630587</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.989170672412841</v>
       </c>
       <c r="I2">
-        <v>0.191919191919192</v>
+        <v>0.267307586054478</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000386761699541411</v>
       </c>
       <c r="K2">
-        <v>0.98989898989899</v>
+        <v>0.948118680590088</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000663020056356705</v>
       </c>
       <c r="M2">
-        <v>0.98989898989899</v>
+        <v>0.999226476600917</v>
       </c>
       <c r="N2">
-        <v>0.717171717171717</v>
+        <v>0.952759820984585</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000386761699541411</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.999723741643185</v>
       </c>
       <c r="Q2">
-        <v>0.101010101010101</v>
+        <v>0.242610088955191</v>
       </c>
       <c r="R2">
-        <v>0.97979797979798</v>
+        <v>0.999336979943643</v>
       </c>
       <c r="S2">
-        <v>0.98989898989899</v>
+        <v>0.997624178131388</v>
       </c>
       <c r="T2">
-        <v>0.0202020202020202</v>
+        <v>0.0312724459914912</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0125421293994143</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.013205149455771</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00154704679816564</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000331510028178352</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,40 +539,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0079009890049174</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.52516713630587e-05</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.52516713630587e-05</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000607768384993646</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000331510028178352</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00237582186861153</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00044201337090447</v>
       </c>
       <c r="I3">
-        <v>0.0202020202020202</v>
+        <v>0.000165755014089176</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00088402674180894</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000276258356815294</v>
       </c>
       <c r="L3">
-        <v>0.0202020202020202</v>
+        <v>0.000110503342726117</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.52516713630587e-05</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000939278413171998</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0101010101010101</v>
+        <v>0.000276258356815294</v>
       </c>
       <c r="V3">
-        <v>0.96969696969697</v>
+        <v>0.985358307088789</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0686225758329189</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00104978175589812</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0518813194099121</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000663020056356705</v>
       </c>
       <c r="D4">
-        <v>0.0101010101010101</v>
+        <v>0.000386761699541411</v>
       </c>
       <c r="E4">
-        <v>0.0101010101010101</v>
+        <v>0.0588982816730206</v>
       </c>
       <c r="F4">
-        <v>0.98989898989899</v>
+        <v>0.998397701530471</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000718271727719763</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00911652577490469</v>
       </c>
       <c r="I4">
-        <v>0.787878787878788</v>
+        <v>0.730482347090999</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0502790209403834</v>
       </c>
       <c r="L4">
-        <v>0.97979797979798</v>
+        <v>0.998176694845019</v>
       </c>
       <c r="M4">
-        <v>0.0101010101010101</v>
+        <v>0.00044201337090447</v>
       </c>
       <c r="N4">
-        <v>0.282828282828283</v>
+        <v>0.0453616221890712</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.999502734957732</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000221006685452235</v>
       </c>
       <c r="Q4">
-        <v>0.898989898989899</v>
+        <v>0.748991656997624</v>
       </c>
       <c r="R4">
-        <v>0.0202020202020202</v>
+        <v>0.000497265042267529</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00193380849770706</v>
       </c>
       <c r="T4">
-        <v>0.97979797979798</v>
+        <v>0.96640698381126</v>
       </c>
       <c r="U4">
-        <v>0.98989898989899</v>
+        <v>0.955467152881375</v>
       </c>
       <c r="V4">
-        <v>0.0101010101010101</v>
+        <v>0.00110503342726117</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00243107353997458</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.000331510028178352</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0101010101010101</v>
+        <v>0.0123763743853252</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000718271727719763</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00088402674180894</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000221006685452235</v>
       </c>
       <c r="F5">
-        <v>0.0101010101010101</v>
+        <v>0.000828775070445881</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.996242886347312</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000221006685452235</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.998673959887287</v>
       </c>
       <c r="K5">
-        <v>0.0101010101010101</v>
+        <v>0.000331510028178352</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000994530084535057</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000276258356815294</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000165755014089176</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5.52516713630587e-05</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000221006685452235</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000165755014089176</v>
       </c>
       <c r="S5">
-        <v>0.0101010101010101</v>
+        <v>0.000221006685452235</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>5.52516713630587e-05</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0315487043483065</v>
       </c>
       <c r="V5">
-        <v>0.0202020202020202</v>
+        <v>0.000221006685452235</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.925023481960329</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.998287198187745</v>
       </c>
     </row>
   </sheetData>
